--- a/Research Design/Research Questions and Data Design.xlsx
+++ b/Research Design/Research Questions and Data Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bschuster\Documents\hivergent_analytics\Research Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8050F7-B7B7-4AE2-A100-E4A456E0329C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D713998-CB53-4958-B599-F8F307A34460}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{6DCF36A5-39DC-4EB8-9703-B142A14C83BE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>What percentage of cryptoassets were being traded across other blockchains such as ripple?</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>All Currency Names must be uppercase</t>
+  </si>
+  <si>
+    <t>token_contract</t>
+  </si>
+  <si>
+    <t>token_distribution</t>
+  </si>
+  <si>
+    <t>erc_721_contract</t>
+  </si>
+  <si>
+    <t>multisig_wallet</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>name_registrar</t>
   </si>
 </sst>
 </file>
@@ -610,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <f>D2-C2</f>
+        <f t="shared" ref="E2:E17" si="0">D2-C2</f>
         <v>2</v>
       </c>
     </row>
@@ -628,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>D3-C3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -646,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f>D4-C4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -664,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <f>D5-C5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -682,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>D6-C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -700,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <f>D7-C7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -718,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>D8-C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -736,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <f>D9-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -754,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <f>D10-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -772,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <f>D11-C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -790,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>D12-C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -808,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <f>D13-C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -826,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <f>D14-C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -844,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>D15-C15</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -862,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>D16-C16</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -880,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <f>D17-C17</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
     </row>
@@ -900,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC490C6-9297-4236-8B80-94073C960BD2}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,32 +929,32 @@
     <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -947,12 +965,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -963,14 +981,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -978,13 +996,28 @@
       <c r="D10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>43</v>
       </c>
@@ -995,12 +1028,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -1011,12 +1044,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>52</v>
       </c>

--- a/Research Design/Research Questions and Data Design.xlsx
+++ b/Research Design/Research Questions and Data Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bschuster\Documents\hivergent_analytics\Research Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D713998-CB53-4958-B599-F8F307A34460}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC30347-AA68-4948-8ABE-B1B3A810A31F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{6DCF36A5-39DC-4EB8-9703-B142A14C83BE}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>What percentage of cryptoassets were being traded across other blockchains such as ripple?</t>
   </si>
@@ -175,15 +175,6 @@
     <t>administrative</t>
   </si>
   <si>
-    <t>Organization Type Must be one of the following</t>
-  </si>
-  <si>
-    <t>ico/token</t>
-  </si>
-  <si>
-    <t>non_fungible_token</t>
-  </si>
-  <si>
     <t>US fee must be to two decimal places</t>
   </si>
   <si>
@@ -233,6 +224,9 @@
   </si>
   <si>
     <t>name_registrar</t>
+  </si>
+  <si>
+    <t>uncategorized</t>
   </si>
 </sst>
 </file>
@@ -918,10 +912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC490C6-9297-4236-8B80-94073C960BD2}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -951,15 +945,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -980,6 +974,9 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -988,7 +985,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
@@ -997,71 +994,55 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>60</v>
+      <c r="A14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
